--- a/maps/xtehr2zibs2024/Admission-Encounter-full.xlsx
+++ b/maps/xtehr2zibs2024/Admission-Encounter-full.xlsx
@@ -2707,47 +2707,15 @@
           <t>EHDSEncounter.location</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Admission.CareFacility::HealthcareProvider</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>CareFacility::HealthcareProvider</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Admission.CareFacility::HealthcareProvider</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>NL: ZorgInstelling::Zorgaanbieder</t>
-        </is>
-      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>context,reference</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>NL-CM:15.4.13</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>The physical location of the healthcare provider where the (partial) admission has taken place or will take place.</t>
-        </is>
-      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
@@ -2835,15 +2803,47 @@
           <t>EHDSEncounter.location.organisationPart[x]</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Admission.CareFacility::HealthcareProvider</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CareFacility::HealthcareProvider</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Admission.CareFacility::HealthcareProvider</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>NL: ZorgInstelling::Zorgaanbieder</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>context,reference</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>NL-CM:15.4.13</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>The physical location of the healthcare provider where the (partial) admission has taken place or will take place.</t>
+        </is>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
